--- a/biology/Médecine/Jean-Baptiste-Antoine_Méglin/Jean-Baptiste-Antoine_Méglin.xlsx
+++ b/biology/Médecine/Jean-Baptiste-Antoine_Méglin/Jean-Baptiste-Antoine_Méglin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean-Baptiste-Antoine_M%C3%A9glin</t>
+          <t>Jean-Baptiste-Antoine_Méglin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Baptiste-Antoine Méglin est un médecin et physicien, né à Soultz (Alsace) en 24 juin 1756, mort à Colmar le 13 mars 1824. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean-Baptiste-Antoine_M%C3%A9glin</t>
+          <t>Jean-Baptiste-Antoine_Méglin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Aperçu biographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est le fils de François Méglin(1721 - 1785), médecin de la ville de Soultz. Le nom de Meglin ou Mäglin figure dans les registres de la paroisse Saint-Maurice dès 1656 et jusqu'à la Révolution [1]. Reçu docteur en médecine en 1775 à Besançon, il s'installe à Soultz. Il rejoint Colmar vers 1790. Il est connu pour avoir mis au point un traitement contre la névralgie faciale : les « pilules de Méglin » renfermant du zinc, de l’extrait de jusquiame et de valériane.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le fils de François Méglin(1721 - 1785), médecin de la ville de Soultz. Le nom de Meglin ou Mäglin figure dans les registres de la paroisse Saint-Maurice dès 1656 et jusqu'à la Révolution . Reçu docteur en médecine en 1775 à Besançon, il s'installe à Soultz. Il rejoint Colmar vers 1790. Il est connu pour avoir mis au point un traitement contre la névralgie faciale : les « pilules de Méglin » renfermant du zinc, de l’extrait de jusquiame et de valériane.
 Il est membre correspondant de l’ Athénée de Paris.
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jean-Baptiste-Antoine_M%C3%A9glin</t>
+          <t>Jean-Baptiste-Antoine_Méglin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Analyse des eaux minérales de Sultzmatt, en Haute-Alsace, Imp. Jean Henri Heitz, 1779, lire en ligne sur Gallica.
 Recherches et observations sur la névralgie faciale ou le tic douloureux de la face, Strasbourg, 1816,lire en ligne sur Gallica.
